--- a/USHPRR/USi_rdfs.xlsx
+++ b/USHPRR/USi_rdfs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B636F61-DC54-884B-8B77-A3B50695ABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE4E8DE-09CC-5943-84D1-22ECA688A221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{F66C907F-8303-8449-8E4A-345A3F62DE5A}"/>
+    <workbookView xWindow="12380" yWindow="4820" windowWidth="27240" windowHeight="16440" xr2:uid="{F66C907F-8303-8449-8E4A-345A3F62DE5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
